--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10102_Logout.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10102_Logout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08F017-F830-4FBD-8DA1-C9C31E52AA1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B203DF6-3429-4A8A-A7C2-BAAB24D06A96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1680" windowWidth="24000" windowHeight="10830" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -41,35 +41,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B84BE104-BA10-4373-A470-3AC10DCE6AE6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -102,145 +73,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{279F7401-9325-4CB9-812A-F632FF1EE54C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{20444C69-161B-4C7D-BFA4-6FC4ED7B2F4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{E298BABB-DE25-4DD5-8F58-6B2CB913800C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{39C65A90-A99A-48A6-A459-51A0DA602664}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「画面構成」は「Screen structure」としてください。
-他のセルについても同様に「structure」に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{9BB94E57-307B-4816-A7F2-4C89DB10002B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-configurationをstructureとしてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -251,35 +83,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{A0632E69-64C5-48D4-B02E-35E4E43C3F05}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -298,89 +101,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{F4475C21-A3AD-41BE-93CC-2ECBF4F8F3AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back event」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{E96C0DBA-C0E1-4536-BC3F-68BD4C335A55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{F0A42A61-2E03-4042-82F6-C586484FA9D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -889,9 +609,6 @@
     <t>6-6-1</t>
   </si>
   <si>
-    <t>Record configuration</t>
-  </si>
-  <si>
     <t>6-7-1</t>
   </si>
   <si>
@@ -947,11 +664,6 @@
     <t>8-2-1</t>
   </si>
   <si>
-    <t>(1) Record configuration
-(2) Record configuration
-(3) Processing details, event details</t>
-  </si>
-  <si>
     <t>8-3-1</t>
   </si>
   <si>
@@ -962,10 +674,6 @@
   </si>
   <si>
     <t>Sort order</t>
-  </si>
-  <si>
-    <t>(1) Record configuration
-(2) Record configuration</t>
   </si>
   <si>
     <t>8-5-1</t>
@@ -1101,9 +809,6 @@
   </si>
   <si>
     <t>Screen unit</t>
-  </si>
-  <si>
-    <t>Screen configuration</t>
   </si>
   <si>
     <t>Configuration and arrangement of the entire screen</t>
@@ -1452,10 +1157,6 @@
 * If the editing process has been confirmed in the class unit test of service, then it is not necessary to test all the validation in the subfunction unit test.</t>
   </si>
   <si>
-    <t>Record configuration
-* If the editing process has been confirmed in the class unit test of service, then it is not necessary to test all the validation in the subfunction unit test.</t>
-  </si>
-  <si>
     <t>Validation of message layout</t>
   </si>
   <si>
@@ -1519,6 +1220,25 @@
   <si>
     <t>Back event</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record structure</t>
+  </si>
+  <si>
+    <t>(1) Record structure
+(2) Record structure
+(3) Processing details, event details</t>
+  </si>
+  <si>
+    <t>(1) Record structure
+(2) Record structure</t>
+  </si>
+  <si>
+    <t>Record structure
+* If the editing process has been confirmed in the class unit test of service, then it is not necessary to test all the validation in the subfunction unit test.</t>
+  </si>
+  <si>
+    <t>Screen structure</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1250,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -1640,21 +1360,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7983,7 +7688,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="95" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7998,7 +7703,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="95" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I6" s="95" t="s">
         <v>111</v>
@@ -8177,7 +7882,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="144" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E13" s="144" t="s">
         <v>148</v>
@@ -8188,7 +7893,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="148" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J13" s="149"/>
       <c r="K13" s="148"/>
@@ -8208,7 +7913,7 @@
       <c r="C14" s="155"/>
       <c r="D14" s="156"/>
       <c r="E14" s="157" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F14" s="131"/>
       <c r="G14" s="132"/>
@@ -8236,7 +7941,7 @@
       <c r="C15" s="155"/>
       <c r="D15" s="156"/>
       <c r="E15" s="157" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F15" s="131"/>
       <c r="G15" s="132"/>
@@ -8244,7 +7949,7 @@
         <v>138</v>
       </c>
       <c r="I15" s="167" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J15" s="167"/>
       <c r="K15" s="167"/>
@@ -8264,7 +7969,7 @@
       <c r="C16" s="155"/>
       <c r="D16" s="156"/>
       <c r="E16" s="157" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F16" s="131"/>
       <c r="G16" s="132"/>
@@ -8272,7 +7977,7 @@
         <v>138</v>
       </c>
       <c r="I16" s="167" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J16" s="149"/>
       <c r="K16" s="149"/>
@@ -8319,7 +8024,7 @@
       <c r="B18" s="114"/>
       <c r="C18" s="156"/>
       <c r="D18" s="128" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E18" s="185"/>
       <c r="F18" s="175"/>
@@ -8508,7 +8213,7 @@
       <c r="C24" s="173"/>
       <c r="D24" s="189"/>
       <c r="E24" s="188" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="F24" s="175"/>
       <c r="G24" s="176"/>
@@ -8530,13 +8235,13 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="114"/>
       <c r="C25" s="173"/>
       <c r="D25" s="189"/>
       <c r="E25" s="188" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="175"/>
       <c r="G25" s="176"/>
@@ -8558,13 +8263,13 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="186" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="114"/>
       <c r="C26" s="173"/>
       <c r="D26" s="189"/>
       <c r="E26" s="188" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="175"/>
       <c r="G26" s="176"/>
@@ -8586,13 +8291,13 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="186" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="114"/>
       <c r="C27" s="173"/>
       <c r="D27" s="156"/>
       <c r="E27" s="188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="175"/>
       <c r="G27" s="176"/>
@@ -8614,13 +8319,13 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="114"/>
       <c r="C28" s="156"/>
       <c r="D28" s="156"/>
       <c r="E28" s="190" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F28" s="175"/>
       <c r="G28" s="176"/>
@@ -8642,13 +8347,13 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="186" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="114"/>
       <c r="C29" s="156"/>
       <c r="D29" s="191"/>
       <c r="E29" s="191" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F29" s="175"/>
       <c r="G29" s="176"/>
@@ -8670,15 +8375,15 @@
     </row>
     <row r="30" spans="1:18" ht="24">
       <c r="A30" s="172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="114"/>
       <c r="C30" s="156"/>
       <c r="D30" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="191" t="s">
         <v>172</v>
-      </c>
-      <c r="E30" s="191" t="s">
-        <v>173</v>
       </c>
       <c r="F30" s="131"/>
       <c r="G30" s="132"/>
@@ -8700,23 +8405,23 @@
     </row>
     <row r="31" spans="1:18" s="112" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="142"/>
       <c r="C31" s="155"/>
       <c r="D31" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="199" t="s">
         <v>175</v>
-      </c>
-      <c r="E31" s="199" t="s">
-        <v>176</v>
       </c>
       <c r="F31" s="200"/>
       <c r="G31" s="201"/>
       <c r="H31" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="203" t="s">
         <v>177</v>
-      </c>
-      <c r="I31" s="203" t="s">
-        <v>178</v>
       </c>
       <c r="J31" s="203"/>
       <c r="K31" s="203"/>
@@ -8730,21 +8435,21 @@
     </row>
     <row r="32" spans="1:18" s="112" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="142"/>
       <c r="C32" s="155"/>
       <c r="D32" s="209"/>
       <c r="E32" s="199" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F32" s="200"/>
       <c r="G32" s="201"/>
       <c r="H32" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I32" s="203" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="J32" s="203"/>
       <c r="K32" s="203"/>
@@ -8758,21 +8463,21 @@
     </row>
     <row r="33" spans="1:18" s="112" customFormat="1" ht="60">
       <c r="A33" s="172" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" s="142"/>
       <c r="C33" s="155"/>
       <c r="D33" s="209"/>
       <c r="E33" s="199" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F33" s="200"/>
       <c r="G33" s="201"/>
       <c r="H33" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I33" s="203" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="J33" s="203"/>
       <c r="K33" s="203"/>
@@ -8786,21 +8491,21 @@
     </row>
     <row r="34" spans="1:18" s="112" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" s="142"/>
       <c r="C34" s="155"/>
       <c r="D34" s="209"/>
       <c r="E34" s="199" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F34" s="200"/>
       <c r="G34" s="201"/>
       <c r="H34" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I34" s="203" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="J34" s="203"/>
       <c r="K34" s="203"/>
@@ -8814,21 +8519,21 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" s="142"/>
       <c r="C35" s="155"/>
       <c r="D35" s="209"/>
       <c r="E35" s="199" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F35" s="200"/>
       <c r="G35" s="201"/>
       <c r="H35" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I35" s="203" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J35" s="203"/>
       <c r="K35" s="203"/>
@@ -8842,21 +8547,21 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="172" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" s="142"/>
       <c r="C36" s="155"/>
       <c r="D36" s="209"/>
       <c r="E36" s="199" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36" s="200"/>
       <c r="G36" s="201"/>
       <c r="H36" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I36" s="203" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J36" s="203"/>
       <c r="K36" s="203"/>
@@ -8870,13 +8575,13 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="142"/>
       <c r="C37" s="155"/>
       <c r="D37" s="209"/>
       <c r="E37" s="199" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F37" s="200"/>
       <c r="G37" s="201"/>
@@ -8884,7 +8589,7 @@
         <v>138</v>
       </c>
       <c r="I37" s="203" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J37" s="203"/>
       <c r="K37" s="203"/>
@@ -8898,13 +8603,13 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="172" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" s="142"/>
       <c r="C38" s="155"/>
       <c r="D38" s="209"/>
       <c r="E38" s="199" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F38" s="200"/>
       <c r="G38" s="201"/>
@@ -8912,7 +8617,7 @@
         <v>138</v>
       </c>
       <c r="I38" s="203" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J38" s="203"/>
       <c r="K38" s="203"/>
@@ -8926,13 +8631,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="172" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B39" s="142"/>
       <c r="C39" s="155"/>
       <c r="D39" s="212"/>
       <c r="E39" s="199" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F39" s="200"/>
       <c r="G39" s="201"/>
@@ -8940,7 +8645,7 @@
         <v>138</v>
       </c>
       <c r="I39" s="203" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J39" s="203"/>
       <c r="K39" s="203"/>
@@ -8954,23 +8659,23 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="213" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" s="142"/>
       <c r="C40" s="155"/>
       <c r="D40" s="214" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E40" s="199" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F40" s="200"/>
       <c r="G40" s="201"/>
       <c r="H40" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I40" s="203" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="J40" s="203"/>
       <c r="K40" s="203"/>
@@ -8984,21 +8689,21 @@
     </row>
     <row r="41" spans="1:18" ht="60">
       <c r="A41" s="213" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B41" s="142"/>
       <c r="C41" s="155"/>
       <c r="D41" s="209"/>
       <c r="E41" s="199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="200"/>
       <c r="G41" s="201"/>
       <c r="H41" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="203" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="J41" s="203"/>
       <c r="K41" s="203"/>
@@ -9012,21 +8717,21 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="213" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B42" s="142"/>
       <c r="C42" s="155"/>
       <c r="D42" s="209"/>
       <c r="E42" s="199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="200"/>
       <c r="G42" s="201"/>
       <c r="H42" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" s="203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J42" s="203"/>
       <c r="K42" s="203"/>
@@ -9040,21 +8745,21 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="213" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" s="142"/>
       <c r="C43" s="155"/>
       <c r="D43" s="209"/>
       <c r="E43" s="199" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" s="200"/>
       <c r="G43" s="201"/>
       <c r="H43" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I43" s="203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J43" s="203"/>
       <c r="K43" s="203"/>
@@ -9068,13 +8773,13 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="213" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B44" s="142"/>
       <c r="C44" s="155"/>
       <c r="D44" s="209"/>
       <c r="E44" s="215" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F44" s="200"/>
       <c r="G44" s="201"/>
@@ -9096,23 +8801,23 @@
     </row>
     <row r="45" spans="1:18" ht="24">
       <c r="A45" s="213" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B45" s="220"/>
       <c r="C45" s="221" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D45" s="222"/>
       <c r="E45" s="222" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F45" s="223"/>
       <c r="G45" s="224"/>
       <c r="H45" s="225" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I45" s="226" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J45" s="226"/>
       <c r="K45" s="226"/>
@@ -9126,21 +8831,21 @@
     </row>
     <row r="46" spans="1:18" ht="24">
       <c r="A46" s="213" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B46" s="220"/>
       <c r="C46" s="155"/>
       <c r="D46" s="209"/>
       <c r="E46" s="230" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F46" s="231"/>
       <c r="G46" s="232"/>
       <c r="H46" s="233" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I46" s="234" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J46" s="234"/>
       <c r="K46" s="234"/>
@@ -9154,13 +8859,13 @@
     </row>
     <row r="47" spans="1:18" ht="24">
       <c r="A47" s="213" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B47" s="220"/>
       <c r="C47" s="155"/>
       <c r="D47" s="209"/>
       <c r="E47" s="238" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F47" s="239"/>
       <c r="G47" s="240"/>
@@ -9182,13 +8887,13 @@
     </row>
     <row r="48" spans="1:18" ht="24">
       <c r="A48" s="213" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B48" s="220"/>
       <c r="C48" s="155"/>
       <c r="D48" s="209"/>
       <c r="E48" s="246" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F48" s="247"/>
       <c r="G48" s="248"/>
@@ -9210,13 +8915,13 @@
     </row>
     <row r="49" spans="1:18" ht="36">
       <c r="A49" s="213" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B49" s="220"/>
       <c r="C49" s="155"/>
       <c r="D49" s="209"/>
       <c r="E49" s="254" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F49" s="255"/>
       <c r="G49" s="256"/>
@@ -9238,13 +8943,13 @@
     </row>
     <row r="50" spans="1:18" ht="24">
       <c r="A50" s="213" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" s="220"/>
       <c r="C50" s="155"/>
       <c r="D50" s="209"/>
       <c r="E50" s="262" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F50" s="263"/>
       <c r="G50" s="264"/>
@@ -9266,13 +8971,13 @@
     </row>
     <row r="51" spans="1:18" ht="24">
       <c r="A51" s="213" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B51" s="220"/>
       <c r="C51" s="155"/>
       <c r="D51" s="209"/>
       <c r="E51" s="270" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F51" s="271"/>
       <c r="G51" s="272"/>
@@ -9294,13 +8999,13 @@
     </row>
     <row r="52" spans="1:18" ht="24">
       <c r="A52" s="213" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52" s="220"/>
       <c r="C52" s="155"/>
       <c r="D52" s="209"/>
       <c r="E52" s="278" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F52" s="279"/>
       <c r="G52" s="280"/>
@@ -9322,13 +9027,13 @@
     </row>
     <row r="53" spans="1:18" ht="24">
       <c r="A53" s="213" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B53" s="286"/>
       <c r="C53" s="287"/>
       <c r="D53" s="209"/>
       <c r="E53" s="288" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F53" s="289"/>
       <c r="G53" s="290"/>
@@ -9350,27 +9055,27 @@
     </row>
     <row r="54" spans="1:18" s="112" customFormat="1" ht="36">
       <c r="A54" s="213" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="296" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="297" t="s">
+        <v>360</v>
+      </c>
+      <c r="E54" s="298" t="s">
         <v>226</v>
-      </c>
-      <c r="B54" s="296" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="156" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="297" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="298" t="s">
-        <v>230</v>
       </c>
       <c r="F54" s="299"/>
       <c r="G54" s="300"/>
       <c r="H54" s="301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I54" s="156" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J54" s="302"/>
       <c r="K54" s="302"/>
@@ -9384,21 +9089,21 @@
     </row>
     <row r="55" spans="1:18" s="112" customFormat="1" ht="24">
       <c r="A55" s="213" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B55" s="296"/>
       <c r="C55" s="156"/>
       <c r="D55" s="156"/>
       <c r="E55" s="309" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F55" s="289"/>
       <c r="G55" s="290"/>
       <c r="H55" s="301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I55" s="301" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J55" s="310"/>
       <c r="K55" s="310"/>
@@ -9412,21 +9117,21 @@
     </row>
     <row r="56" spans="1:18" s="112" customFormat="1" ht="24">
       <c r="A56" s="213" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B56" s="296"/>
       <c r="C56" s="156"/>
       <c r="D56" s="156"/>
       <c r="E56" s="309" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F56" s="289"/>
       <c r="G56" s="290"/>
       <c r="H56" s="301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I56" s="301" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J56" s="310"/>
       <c r="K56" s="310"/>
@@ -9440,21 +9145,21 @@
     </row>
     <row r="57" spans="1:18" s="311" customFormat="1">
       <c r="A57" s="213" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B57" s="296"/>
       <c r="C57" s="156"/>
       <c r="D57" s="156"/>
       <c r="E57" s="309" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F57" s="289"/>
       <c r="G57" s="290"/>
       <c r="H57" s="301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I57" s="301" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J57" s="310"/>
       <c r="K57" s="310"/>
@@ -9468,21 +9173,21 @@
     </row>
     <row r="58" spans="1:18" s="311" customFormat="1" ht="24">
       <c r="A58" s="213" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B58" s="296"/>
       <c r="C58" s="156"/>
       <c r="D58" s="191"/>
       <c r="E58" s="309" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F58" s="289"/>
       <c r="G58" s="290"/>
       <c r="H58" s="301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I58" s="301" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J58" s="310"/>
       <c r="K58" s="310"/>
@@ -9496,23 +9201,23 @@
     </row>
     <row r="59" spans="1:18" s="112" customFormat="1" ht="24">
       <c r="A59" s="213" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B59" s="296"/>
       <c r="C59" s="156"/>
       <c r="D59" s="312" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E59" s="313" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F59" s="314"/>
       <c r="G59" s="315"/>
       <c r="H59" s="316" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I59" s="316" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J59" s="317"/>
       <c r="K59" s="317"/>
@@ -9526,21 +9231,21 @@
     </row>
     <row r="60" spans="1:18" s="112" customFormat="1" ht="24">
       <c r="A60" s="213" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B60" s="296"/>
       <c r="C60" s="156"/>
       <c r="D60" s="156"/>
       <c r="E60" s="317" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F60" s="314"/>
       <c r="G60" s="315"/>
       <c r="H60" s="316" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I60" s="316" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J60" s="317"/>
       <c r="K60" s="317"/>
@@ -9554,21 +9259,21 @@
     </row>
     <row r="61" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="213" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B61" s="296"/>
       <c r="C61" s="156"/>
       <c r="D61" s="191"/>
       <c r="E61" s="317" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F61" s="314"/>
       <c r="G61" s="315"/>
       <c r="H61" s="316" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I61" s="316" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J61" s="317"/>
       <c r="K61" s="317"/>
@@ -9582,23 +9287,23 @@
     </row>
     <row r="62" spans="1:18" s="112" customFormat="1">
       <c r="A62" s="213" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B62" s="296"/>
       <c r="C62" s="156"/>
       <c r="D62" s="319" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E62" s="317" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F62" s="314"/>
       <c r="G62" s="315"/>
       <c r="H62" s="316" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I62" s="316" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J62" s="317"/>
       <c r="K62" s="317"/>
@@ -9612,21 +9317,21 @@
     </row>
     <row r="63" spans="1:18" s="112" customFormat="1">
       <c r="A63" s="213" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B63" s="296"/>
       <c r="C63" s="156"/>
       <c r="D63" s="191"/>
       <c r="E63" s="317" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F63" s="314"/>
       <c r="G63" s="315"/>
       <c r="H63" s="316" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I63" s="316" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J63" s="317"/>
       <c r="K63" s="317"/>
@@ -9640,15 +9345,15 @@
     </row>
     <row r="64" spans="1:18" s="112" customFormat="1" ht="36">
       <c r="A64" s="213" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B64" s="296"/>
       <c r="C64" s="156"/>
       <c r="D64" s="319" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E64" s="317" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F64" s="314"/>
       <c r="G64" s="315"/>
@@ -9656,7 +9361,7 @@
         <v>138</v>
       </c>
       <c r="I64" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J64" s="317"/>
       <c r="K64" s="317"/>
@@ -9670,13 +9375,13 @@
     </row>
     <row r="65" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="213" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B65" s="296"/>
       <c r="C65" s="156"/>
       <c r="D65" s="156"/>
       <c r="E65" s="317" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F65" s="314"/>
       <c r="G65" s="315"/>
@@ -9684,7 +9389,7 @@
         <v>138</v>
       </c>
       <c r="I65" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J65" s="317"/>
       <c r="K65" s="317"/>
@@ -9698,13 +9403,13 @@
     </row>
     <row r="66" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="213" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B66" s="296"/>
       <c r="C66" s="156"/>
       <c r="D66" s="156"/>
       <c r="E66" s="317" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F66" s="314"/>
       <c r="G66" s="315"/>
@@ -9712,7 +9417,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J66" s="317"/>
       <c r="K66" s="317"/>
@@ -9758,13 +9463,13 @@
     </row>
     <row r="68" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="213" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B68" s="296"/>
       <c r="C68" s="156"/>
       <c r="D68" s="156"/>
       <c r="E68" s="317" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F68" s="314"/>
       <c r="G68" s="315"/>
@@ -9772,7 +9477,7 @@
         <v>138</v>
       </c>
       <c r="I68" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J68" s="317"/>
       <c r="K68" s="317"/>
@@ -9786,13 +9491,13 @@
     </row>
     <row r="69" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="213" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B69" s="296"/>
       <c r="C69" s="156"/>
       <c r="D69" s="156"/>
       <c r="E69" s="317" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F69" s="314"/>
       <c r="G69" s="315"/>
@@ -9800,7 +9505,7 @@
         <v>138</v>
       </c>
       <c r="I69" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J69" s="317"/>
       <c r="K69" s="317"/>
@@ -9814,13 +9519,13 @@
     </row>
     <row r="70" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="213" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B70" s="296"/>
       <c r="C70" s="156"/>
       <c r="D70" s="156"/>
       <c r="E70" s="317" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F70" s="314"/>
       <c r="G70" s="315"/>
@@ -9828,7 +9533,7 @@
         <v>138</v>
       </c>
       <c r="I70" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J70" s="317"/>
       <c r="K70" s="317"/>
@@ -9842,13 +9547,13 @@
     </row>
     <row r="71" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="213" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B71" s="296"/>
       <c r="C71" s="156"/>
       <c r="D71" s="191"/>
       <c r="E71" s="317" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F71" s="314"/>
       <c r="G71" s="315"/>
@@ -9856,7 +9561,7 @@
         <v>138</v>
       </c>
       <c r="I71" s="316" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J71" s="317"/>
       <c r="K71" s="317"/>
@@ -9870,15 +9575,15 @@
     </row>
     <row r="72" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="213" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B72" s="296"/>
       <c r="C72" s="156"/>
       <c r="D72" s="156" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E72" s="317" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F72" s="314"/>
       <c r="G72" s="315"/>
@@ -9886,7 +9591,7 @@
         <v>138</v>
       </c>
       <c r="I72" s="320" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J72" s="317"/>
       <c r="K72" s="317"/>
@@ -9900,15 +9605,15 @@
     </row>
     <row r="73" spans="1:18" s="112" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="213" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B73" s="296"/>
       <c r="C73" s="156"/>
       <c r="D73" s="319" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E73" s="317" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F73" s="314"/>
       <c r="G73" s="315"/>
@@ -9916,7 +9621,7 @@
         <v>138</v>
       </c>
       <c r="I73" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J73" s="321"/>
       <c r="K73" s="317"/>
@@ -9930,13 +9635,13 @@
     </row>
     <row r="74" spans="1:18" s="112" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="213" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B74" s="296"/>
       <c r="C74" s="156"/>
       <c r="D74" s="156"/>
       <c r="E74" s="317" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F74" s="314"/>
       <c r="G74" s="315"/>
@@ -9944,7 +9649,7 @@
         <v>138</v>
       </c>
       <c r="I74" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J74" s="317"/>
       <c r="K74" s="317"/>
@@ -9958,13 +9663,13 @@
     </row>
     <row r="75" spans="1:18" s="112" customFormat="1">
       <c r="A75" s="213" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B75" s="296"/>
       <c r="C75" s="156"/>
       <c r="D75" s="191"/>
       <c r="E75" s="317" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F75" s="314"/>
       <c r="G75" s="315"/>
@@ -9972,7 +9677,7 @@
         <v>138</v>
       </c>
       <c r="I75" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J75" s="317"/>
       <c r="K75" s="317"/>
@@ -9986,15 +9691,15 @@
     </row>
     <row r="76" spans="1:18" s="112" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="213" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B76" s="296"/>
       <c r="C76" s="156"/>
       <c r="D76" s="319" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E76" s="317" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F76" s="314"/>
       <c r="G76" s="315"/>
@@ -10002,7 +9707,7 @@
         <v>138</v>
       </c>
       <c r="I76" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J76" s="321"/>
       <c r="K76" s="317"/>
@@ -10016,13 +9721,13 @@
     </row>
     <row r="77" spans="1:18" s="112" customFormat="1">
       <c r="A77" s="213" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B77" s="296"/>
       <c r="C77" s="156"/>
       <c r="D77" s="156"/>
       <c r="E77" s="317" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F77" s="314"/>
       <c r="G77" s="315"/>
@@ -10030,7 +9735,7 @@
         <v>138</v>
       </c>
       <c r="I77" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J77" s="317"/>
       <c r="K77" s="317"/>
@@ -10044,13 +9749,13 @@
     </row>
     <row r="78" spans="1:18" s="112" customFormat="1">
       <c r="A78" s="213" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B78" s="296"/>
       <c r="C78" s="156"/>
       <c r="D78" s="191"/>
       <c r="E78" s="322" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F78" s="314"/>
       <c r="G78" s="315"/>
@@ -10058,7 +9763,7 @@
         <v>138</v>
       </c>
       <c r="I78" s="319" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J78" s="317"/>
       <c r="K78" s="317"/>
@@ -10072,12 +9777,12 @@
     </row>
     <row r="79" spans="1:18" s="112" customFormat="1" ht="24">
       <c r="A79" s="213" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B79" s="296"/>
       <c r="C79" s="156"/>
       <c r="D79" s="128" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E79" s="323"/>
       <c r="F79" s="324"/>
@@ -10086,7 +9791,7 @@
         <v>138</v>
       </c>
       <c r="I79" s="327" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J79" s="328"/>
       <c r="K79" s="328"/>
@@ -10132,23 +9837,23 @@
     </row>
     <row r="81" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="213" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B81" s="296"/>
       <c r="C81" s="330" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D81" s="331" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E81" s="332"/>
       <c r="F81" s="333"/>
       <c r="G81" s="334"/>
       <c r="H81" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I81" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J81" s="335"/>
       <c r="K81" s="335"/>
@@ -10162,23 +9867,23 @@
     </row>
     <row r="82" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="213" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B82" s="296"/>
       <c r="C82" s="156"/>
       <c r="D82" s="342" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E82" s="343" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F82" s="333"/>
       <c r="G82" s="334"/>
       <c r="H82" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I82" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J82" s="335"/>
       <c r="K82" s="335"/>
@@ -10192,21 +9897,21 @@
     </row>
     <row r="83" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="213" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B83" s="296"/>
       <c r="C83" s="156"/>
       <c r="D83" s="342"/>
       <c r="E83" s="343" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F83" s="333"/>
       <c r="G83" s="334"/>
       <c r="H83" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I83" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J83" s="335"/>
       <c r="K83" s="335"/>
@@ -10220,21 +9925,21 @@
     </row>
     <row r="84" spans="1:18" s="112" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="213" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B84" s="296"/>
       <c r="C84" s="156"/>
       <c r="D84" s="342" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E84" s="344"/>
       <c r="F84" s="333"/>
       <c r="G84" s="334"/>
       <c r="H84" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I84" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J84" s="335"/>
       <c r="K84" s="335"/>
@@ -10248,21 +9953,21 @@
     </row>
     <row r="85" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="213" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B85" s="296"/>
       <c r="C85" s="156"/>
       <c r="D85" s="342" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E85" s="344"/>
       <c r="F85" s="333"/>
       <c r="G85" s="334"/>
       <c r="H85" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I85" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J85" s="335"/>
       <c r="K85" s="335"/>
@@ -10276,21 +9981,21 @@
     </row>
     <row r="86" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="213" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B86" s="296"/>
       <c r="C86" s="156"/>
       <c r="D86" s="342" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E86" s="344"/>
       <c r="F86" s="333"/>
       <c r="G86" s="334"/>
       <c r="H86" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I86" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J86" s="335"/>
       <c r="K86" s="335"/>
@@ -10464,21 +10169,21 @@
     </row>
     <row r="92" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="213" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B92" s="296"/>
       <c r="C92" s="156"/>
       <c r="D92" s="342" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E92" s="344"/>
       <c r="F92" s="333"/>
       <c r="G92" s="334"/>
       <c r="H92" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I92" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J92" s="335"/>
       <c r="K92" s="335"/>
@@ -10492,21 +10197,21 @@
     </row>
     <row r="93" spans="1:18" s="112" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="213" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B93" s="296"/>
       <c r="C93" s="156"/>
       <c r="D93" s="342" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E93" s="344"/>
       <c r="F93" s="333"/>
       <c r="G93" s="334"/>
       <c r="H93" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I93" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J93" s="335"/>
       <c r="K93" s="335"/>
@@ -10520,21 +10225,21 @@
     </row>
     <row r="94" spans="1:18" s="112" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="213" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B94" s="296"/>
       <c r="C94" s="156"/>
       <c r="D94" s="342" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E94" s="344"/>
       <c r="F94" s="333"/>
       <c r="G94" s="334"/>
       <c r="H94" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I94" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J94" s="335"/>
       <c r="K94" s="335"/>
@@ -10548,21 +10253,21 @@
     </row>
     <row r="95" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="213" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B95" s="296"/>
       <c r="C95" s="156"/>
       <c r="D95" s="342" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E95" s="344"/>
       <c r="F95" s="333"/>
       <c r="G95" s="334"/>
       <c r="H95" s="346" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I95" s="346" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J95" s="347"/>
       <c r="K95" s="347"/>
@@ -10576,21 +10281,21 @@
     </row>
     <row r="96" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="213" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B96" s="296"/>
       <c r="C96" s="156"/>
       <c r="D96" s="342" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E96" s="344"/>
       <c r="F96" s="333"/>
       <c r="G96" s="334"/>
       <c r="H96" s="330" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I96" s="330" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J96" s="335"/>
       <c r="K96" s="335"/>
@@ -10636,21 +10341,21 @@
     </row>
     <row r="98" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="213" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B98" s="296"/>
       <c r="C98" s="156"/>
       <c r="D98" s="348" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E98" s="349"/>
       <c r="F98" s="350"/>
       <c r="G98" s="351"/>
       <c r="H98" s="327" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I98" s="327" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J98" s="328"/>
       <c r="K98" s="328"/>
@@ -10664,21 +10369,21 @@
     </row>
     <row r="99" spans="1:18" s="112" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="213" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B99" s="296"/>
       <c r="C99" s="156"/>
       <c r="D99" s="348" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E99" s="349"/>
       <c r="F99" s="350"/>
       <c r="G99" s="351"/>
       <c r="H99" s="327" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I99" s="327" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J99" s="328"/>
       <c r="K99" s="328"/>
@@ -10692,21 +10397,21 @@
     </row>
     <row r="100" spans="1:18" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="358" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B100" s="296"/>
       <c r="C100" s="156"/>
       <c r="D100" s="359" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E100" s="360"/>
       <c r="F100" s="350"/>
       <c r="G100" s="351"/>
       <c r="H100" s="361" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I100" s="361" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J100" s="362"/>
       <c r="K100" s="362"/>
@@ -10999,7 +10704,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="95" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -11014,7 +10719,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="95" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H6" s="95" t="s">
         <v>111</v>
@@ -11025,7 +10730,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="95" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H7" s="95" t="s">
         <v>114</v>
@@ -11108,26 +10813,26 @@
         <v>135</v>
       </c>
       <c r="B11" s="377" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C11" s="377" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D11" s="378" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E11" s="379"/>
       <c r="F11" s="377" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G11" s="377" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H11" s="380" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I11" s="380" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J11" s="381"/>
       <c r="K11" s="382"/>
@@ -11150,14 +10855,14 @@
       <c r="B12" s="384"/>
       <c r="C12" s="384"/>
       <c r="D12" s="385" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E12" s="386"/>
       <c r="F12" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G12" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H12" s="388"/>
       <c r="I12" s="388"/>
@@ -11176,14 +10881,14 @@
       <c r="B13" s="384"/>
       <c r="C13" s="384"/>
       <c r="D13" s="385" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E13" s="386"/>
       <c r="F13" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G13" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H13" s="388"/>
       <c r="I13" s="388"/>
@@ -11202,14 +10907,14 @@
       <c r="B14" s="384"/>
       <c r="C14" s="384"/>
       <c r="D14" s="385" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E14" s="386"/>
       <c r="F14" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G14" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H14" s="388"/>
       <c r="I14" s="388"/>
@@ -11228,16 +10933,16 @@
       <c r="B15" s="384"/>
       <c r="C15" s="384"/>
       <c r="D15" s="392" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E15" s="385" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F15" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G15" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H15" s="388"/>
       <c r="I15" s="388"/>
@@ -11251,19 +10956,19 @@
     </row>
     <row r="16" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="383" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B16" s="384"/>
       <c r="C16" s="384"/>
       <c r="D16" s="384"/>
       <c r="E16" s="385" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F16" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G16" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H16" s="388"/>
       <c r="I16" s="388"/>
@@ -11277,19 +10982,19 @@
     </row>
     <row r="17" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="383" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B17" s="384"/>
       <c r="C17" s="384"/>
       <c r="D17" s="384"/>
       <c r="E17" s="385" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F17" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G17" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H17" s="388"/>
       <c r="I17" s="388"/>
@@ -11303,19 +11008,19 @@
     </row>
     <row r="18" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="383" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B18" s="384"/>
       <c r="C18" s="384"/>
       <c r="D18" s="393"/>
       <c r="E18" s="385" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G18" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H18" s="388"/>
       <c r="I18" s="388"/>
@@ -11334,16 +11039,16 @@
       <c r="B19" s="384"/>
       <c r="C19" s="384"/>
       <c r="D19" s="394" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E19" s="395" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F19" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G19" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="388"/>
       <c r="I19" s="388"/>
@@ -11357,21 +11062,21 @@
     </row>
     <row r="20" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="383" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="384"/>
       <c r="C20" s="384"/>
       <c r="D20" s="395" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E20" s="396" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F20" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G20" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H20" s="388"/>
       <c r="I20" s="388"/>
@@ -11385,19 +11090,19 @@
     </row>
     <row r="21" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="383" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="384"/>
       <c r="C21" s="384"/>
       <c r="D21" s="395" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E21" s="397"/>
       <c r="F21" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G21" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H21" s="388"/>
       <c r="I21" s="388"/>
@@ -11411,21 +11116,21 @@
     </row>
     <row r="22" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="383" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" s="384"/>
       <c r="C22" s="387" t="s">
         <v>147</v>
       </c>
       <c r="D22" s="385" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E22" s="386"/>
       <c r="F22" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G22" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H22" s="388"/>
       <c r="I22" s="388"/>
@@ -11439,19 +11144,19 @@
     </row>
     <row r="23" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="383" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" s="393"/>
       <c r="C23" s="393"/>
       <c r="D23" s="385" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E23" s="386"/>
       <c r="F23" s="387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="387" t="s">
         <v>318</v>
-      </c>
-      <c r="G23" s="387" t="s">
-        <v>322</v>
       </c>
       <c r="H23" s="388"/>
       <c r="I23" s="388"/>
@@ -11465,13 +11170,13 @@
     </row>
     <row r="24" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="383" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="387" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C24" s="398" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D24" s="399"/>
       <c r="E24" s="400"/>
@@ -11479,7 +11184,7 @@
         <v>138</v>
       </c>
       <c r="G24" s="396" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H24" s="388"/>
       <c r="I24" s="388"/>
@@ -11493,11 +11198,11 @@
     </row>
     <row r="25" spans="1:16" s="391" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="383" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B25" s="401"/>
       <c r="C25" s="402" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D25" s="403"/>
       <c r="E25" s="404"/>
